--- a/UT.Vol.BLL/HelperFiles/Group.xlsx
+++ b/UT.Vol.BLL/HelperFiles/Group.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Group" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>GroupID</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Head Bangin Billy Goats</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>[Vol].[tblGroup]</t>
   </si>
 </sst>
 </file>
@@ -96,14 +105,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,181 +444,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <f>A2+1</f>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>"INSERT INTO "&amp;A2&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; D2 &amp; "' ,'" &amp; E2 &amp; "')"</f>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '100','Banzai Falcons','1' ,'1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <f>B2+1</f>
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F11" si="0">"INSERT INTO "&amp;A3&amp;" ([" &amp;B$1 &amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp; "' ,'" &amp; E3 &amp; "')"</f>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '101','Thunder Chickens','2' ,'1')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B10" si="1">B3+1</f>
         <v>102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '102','Cranium Krusherz','3' ,'1')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '103','The Nemesis','4' ,'1')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '104','Spinal Tappers','5' ,'1')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '105','Space Monkey Mafia','6' ,'1')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '106','The Untouchables','7' ,'1')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '107','Miracle Workers','8' ,'1')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <f>A10+2</f>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '108','Spitting Llamas','9' ,'1')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <f>B10+2</f>
         <v>110</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Vol].[tblGroup] ([GroupID],[GroupName],[ParticipationLevelID],[ActiveFlg]) VALUES ( '110','Head Bangin Billy Goats','10' ,'1')</v>
       </c>
     </row>
   </sheetData>
